--- a/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_hypothesis_testing.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_hypothesis_testing.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates repeated attempts to gain unauthorized access to user accounts via brute-force methods against an SSH server. This aligns with the definition of Account Compromise (CAT1).</t>
+          <t>The incident clearly demonstrates an attempt to compromise user accounts through repeated brute-force SSH login attempts using invalid credentials. This aligns perfectly with the definition of Account Compromise (CAT1).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The incident clearly demonstrates an attempt to compromise user accounts through brute-force attacks against an SSH server. Multiple failed login attempts with invalid usernames and passwords strongly indicate an account compromise attempt.</t>
+          <t>The incident strongly suggests an account compromise attempt through repeated brute-force SSH login attempts using various usernames.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The email describes a situation where an IP address is flagged for potential abuse, suggesting a possible attempt to compromise accounts on the target network. Although specific details about account compromise are absent, the context and language used point towards a potential CAT1 incident.</t>
+          <t>While the email doesn't provide concrete details about compromised accounts, the request to investigate "abuse" from a specific IP address strongly suggests potential unauthorized activity on the recipient's network. This aligns with the broader definition of Account Compromise, encompassing situations where unauthorized access or misuse of accounts is suspected.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident description clearly points to repeated attempts to gain unauthorized access to user accounts via brute-force attacks against an SSH server. This aligns perfectly with the definition of Account Compromise (CAT1).</t>
+          <t>The incident description strongly indicates an account compromise attempt through repeated failed SSH logins using invalid usernames, suggesting brute-force or credential guessing techniques.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The incident report clearly indicates the presence of "SystemBC" malware, which is defined as malicious code.  The email details its potential impact on the network and recommends actions to mitigate the infection. This strongly supports classifying the incident under CAT2: Malware.</t>
+          <t>The incident report explicitly states that one or more computers in the victim's network have been potentially infected with the SystemBC malware, a backdoor often used in ransomware attacks. This aligns directly with the definition of a CAT2 incident (Malware).</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident description strongly suggests account compromise due to the potential for SystemBC malware to provide attackers with unauthorized access and control over victim systems.</t>
+          <t>The incident description strongly indicates a case of Account Compromise.  The SystemBC malware is used to gain unauthorized access to accounts within the victim's network, enabling attackers to move laterally and potentially compromise further systems.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1048,24 +1048,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CAT3</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The email logs strongly indicate a Denial of Service attack due to the repeated connection attempts and server overload messages.</t>
+          <t>The email logs and Fail2Ban involvement strongly suggest the possibility of malware infection on the system sending the emails. While further investigation is needed for confirmation, the available evidence leans towards a CAT2 classification.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CAT3</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>While the provided information doesn't conclusively prove a malware infection, the email filtering and recipient address association with "mega.kg" strongly suggest potential malicious activity. Further investigation is needed to confirm or rule out a malware incident.</t>
+          <t>The incident description strongly suggests potential malware activity due to the email's content and the filtering actions taken by the mail server. The log lines indicate attempts to connect from a potentially compromised IP address, which is a common characteristic of malware infections. While definitive proof of malware infection is absent, the circumstantial evidence points towards CAT2 as the most likely category.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The email strongly suggests an account compromise, possibly through brute force attacks targeting SSH, leading to unauthorized access and potentially malicious activity from the compromised machine.</t>
+          <t>The email from CERT.br strongly indicates an Account Compromise (CAT1) scenario due to the suspected unauthorized access to a machine and potential SSH brute force attack.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1285,24 +1285,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CAT2</t>
+          <t>CAT1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident description points strongly towards a CAT2 classification (Malware) due to the presence of a botnet, which is typically created and controlled by malware. While the specific type of malware isn't explicitly stated, the context heavily suggests its involvement in the DDoS attack.</t>
+          <t>The incident description points to a compromised host used for a DDoS attack, strongly suggesting account compromise as the primary cause. While the incident involves a DDoS attack (CAT3), the underlying issue is the unauthorized access and control of the host, making CAT1 the most appropriate classification.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CAT2</t>
+          <t>CAT1</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1358,24 +1358,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CAT1</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident description points towards a compromised host ([IP_ADDRESS_43f72b8354]) being used in a DDoS attack. The email details potential vulnerabilities that could have led to this compromise, strongly suggesting account takeover or unauthorized control of the system.</t>
+          <t>The incident strongly suggests a CAT2 classification due to the involvement of a botnet used for a DDoS attack. Botnets are typically created and controlled by malware, making it highly probable that malware is responsible for compromising the devices involved in the attack.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CAT1</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The strong indication of a botnet being used for the DDoS attack, coupled with the common association of botnets and malware, strongly suggests that the incident falls under Category 2 (Malware). While direct evidence of malware infection is absent, the circumstantial evidence points towards this category.</t>
+          <t>The incident description strongly points to a compromised host(s) being part of a botnet used for a DDoS attack. This is highly indicative of malware infection, even if the specific type of malware isn't explicitly stated.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a vulnerability that allows attackers to gain unauthorized access to user accounts, making Account Compromise (CAT1) the most accurate classification.</t>
+          <t>The incident description clearly indicates a potential vulnerability that allows attackers to gain unauthorized access to user accounts on Zimbra servers. This aligns with the definition of Account Compromise (CAT1).  The email emphasizes the risk of account takeover and provides guidance on mitigating this specific threat.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1636,24 +1636,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAT2</t>
+          <t>CAT3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>While the incident doesn't explicitly state malware infection, the potential for attackers to exploit misconfigured BGP services for malicious purposes aligns with the risks associated with CAT2 (Malware). The vulnerability itself could be considered a form of "malicious code" in this context.</t>
+          <t>The incident description highlights a significant security vulnerability that directly exposes systems to potential Denial of Service attacks.  The email from CERT.br clearly warns about the risks associated with this exposure, making it highly probable that a DoS attack could be launched against these vulnerable BGP services.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CAT2</t>
+          <t>CAT3</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The evidence strongly points towards malicious activity consistent with malware. The keywords, the actions described, and the recommendation to scan for malware all suggest a high probability of a malware infection or attempt.</t>
+          <t>The incident description strongly indicates a potential malware infection based on the terms "probe/scan/virus/trojan" and reports of "unwanted activities."  The email suggests that the IP address is being flagged for potentially malicious behavior, aligning with the definition of Category 2 (Malware).</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a potential Denial of Service attack due to open SSDP/UPnP services on the listed IP addresses. The email from CERT.br warns about the vulnerability and its potential impact, aligning perfectly with the definition of a DoS attack.</t>
+          <t>The incident falls under CAT3 (Denial of Service Attack) because it explicitly warns about the potential for exploiting open SSDP/UPnP services for DDoS attacks. The email highlights the vulnerability and provides guidance on mitigating this risk, making it a clear case of a potential denial-of-service threat.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>While the incident doesn't explicitly state malware infection, the potential for servers to be misused in attacks like DDoS due to misconfigurations strongly suggests a vulnerability that could be exploited by malware.</t>
+          <t>The incident description strongly suggests a vulnerability (misconfigured NTP servers) that could be exploited by attackers to launch DDoS attacks, which often involve malware for amplification purposes. While the email doesn't explicitly state malware infection, the potential for misuse and attack vectors aligns with CAT2.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident strongly suggests an attempt at account compromise through a phishing scam, as evidenced by the email's content and the mention of a "PHISHING SCAM practice."</t>
+          <t>The incident description strongly indicates an account compromise attempt through a phishing scam. The email explicitly mentions a complaint about "PHISHING SCAM practice" and requests investigation into the reported facts. This aligns directly with the definition of CAT1, which involves unauthorized access to user or administrator accounts often achieved through tactics like phishing.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident strongly suggests a potential account compromise, as a compromised server is often used to send fraudulent emails from compromised accounts or impersonate legitimate users. The email mentions an "attack" and the need to "close down this attack," further hinting at unauthorized access and malicious use of the server.</t>
+          <t>The incident strongly suggests account compromise due to the fraudulent emails being sent from a compromised server. While direct evidence of unauthorized access is missing, the context points towards malicious actors exploiting vulnerabilities or using stolen credentials to control the server and send fraudulent messages.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2170,24 +2170,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CAT3</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>While the email doesn't explicitly state a denial-of-service attack, the alteration of website content strongly suggests an attempt to disrupt service availability. Further investigation is needed to confirm the specific nature of the attack and rule out other possibilities.</t>
+          <t>While the description doesn't explicitly state "malware," the alteration of website content strongly suggests malicious activity. The email from CERT.br indicates a serious security concern requiring investigation, which aligns with potential malware infection or exploitation.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CAT3</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2221,24 +2221,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CAT1</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The incident description strongly suggests unauthorized access and modification of website content, aligning with the characteristics of an account compromise (CAT1). While further investigation is needed to determine the exact method of attack, the available information points towards this category.</t>
+          <t>While the description doesn't explicitly state "malware," the alteration of website content strongly suggests a potential malware infection used to inject malicious code. The lack of other clear indicators supports this hypothesis.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CAT1</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2288,24 +2288,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CAT4</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>While the email doesn't explicitly confirm a data leak, the alteration of website content raises a strong possibility that sensitive information might have been exposed or manipulated. The lack of concrete evidence doesn't rule out the possibility of a data leak; further investigation is needed to determine the extent of the incident.</t>
+          <t>The alteration of website content without user intervention strongly suggests the presence of malicious code (malware) injected into the site. While the specific type of malware isn't clear from the description, the impact aligns with typical malware behavior.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CAT4</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2349,24 +2349,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CAT5</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates unauthorized modification of website content, which is highly suggestive of a vulnerability exploitation. The nature of the alteration ("little error" and ASCII art) further supports this conclusion as it resembles common tactics used by attackers to demonstrate control after exploiting a system.</t>
+          <t>The incident description strongly suggests a potential malware attack due to the website's content being altered without clear explanation. While direct evidence of malware is absent, the nature of the change and the stylized text output raise strong suspicions. Further investigation is required to confirm the presence of malware and determine its specific type and purpose.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CAT5</t>
+          <t>CAT2</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident strongly suggests an Account Compromise (CAT1) as the website defacement points to unauthorized access and modification of content, likely achieved through compromised user or administrator accounts.</t>
+          <t>The incident strongly suggests account compromise due to the unauthorized modification of a website's content and the attackers' claim of ownership. While the exact method of access isn't specified, the defacement points towards attackers gaining control over the website's systems or files, likely through compromised credentials or vulnerabilities.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
